--- a/src/public/statistics/thong-ke-doanh-so-theo-thang.xlsx
+++ b/src/public/statistics/thong-ke-doanh-so-theo-thang.xlsx
@@ -382,7 +382,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>BẢNG THỐNG KÊ DOANH THU NĂM 2021 - 2023</v>
+        <v>BẢNG THỐNG KÊ DOANH THU NĂM 2022 - 2024</v>
       </c>
     </row>
     <row r="2">
@@ -425,7 +425,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Năm 2021</v>
+        <v>Năm 2022</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -443,13 +443,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>61660000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>17100000</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -458,15 +458,15 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Năm 2022</v>
+        <v>Năm 2023</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12400000</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>61660000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>17100000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -499,15 +499,15 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Năm 2023</v>
+        <v>Năm 2024</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12400000</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
